--- a/Team-Data/2009-10/2-21-2009-10.xlsx
+++ b/Team-Data/2009-10/2-21-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -669,61 +736,61 @@
         <v>53</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.623</v>
+        <v>0.642</v>
       </c>
       <c r="H2" t="n">
         <v>48.3</v>
       </c>
       <c r="I2" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J2" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L2" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M2" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O2" t="n">
         <v>17.8</v>
       </c>
       <c r="P2" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R2" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S2" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V2" t="n">
         <v>12</v>
       </c>
       <c r="W2" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X2" t="n">
         <v>5.2</v>
@@ -732,34 +799,34 @@
         <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA2" t="n">
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="n">
         <v>7</v>
       </c>
-      <c r="AF2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>8</v>
-      </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -771,13 +838,13 @@
         <v>16</v>
       </c>
       <c r="AM2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
         <v>24</v>
@@ -786,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="AR2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS2" t="n">
         <v>26</v>
@@ -795,28 +862,28 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV2" t="n">
         <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB2" t="n">
         <v>11</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>30</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.635</v>
+        <v>0.66</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
-        <v>76.3</v>
+        <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="N3" t="n">
-        <v>0.342</v>
+        <v>0.348</v>
       </c>
       <c r="O3" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P3" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.733</v>
+        <v>0.74</v>
       </c>
       <c r="R3" t="n">
         <v>8.6</v>
       </c>
       <c r="S3" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
         <v>23.5</v>
@@ -920,28 +987,28 @@
         <v>21.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="n">
         <v>4</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>7</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,13 +1017,13 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -965,13 +1032,13 @@
         <v>10</v>
       </c>
       <c r="AQ3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -983,10 +1050,10 @@
         <v>25</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
@@ -1001,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.509</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="J4" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M4" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O4" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P4" t="n">
         <v>26.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>30.1</v>
       </c>
       <c r="T4" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.6</v>
@@ -1093,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z4" t="n">
         <v>19.7</v>
@@ -1102,49 +1169,49 @@
         <v>21.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1162,10 +1229,10 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="n">
         <v>16</v>
@@ -1177,13 +1244,13 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
         <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1308,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1320,19 +1387,19 @@
         <v>30</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>2</v>
@@ -1365,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.782</v>
+        <v>0.768</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="J6" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K6" t="n">
-        <v>0.489</v>
+        <v>0.486</v>
       </c>
       <c r="L6" t="n">
         <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4</v>
+        <v>0.403</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R6" t="n">
         <v>9.6</v>
       </c>
       <c r="S6" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T6" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U6" t="n">
         <v>21.7</v>
@@ -1457,22 +1524,22 @@
         <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1502,16 +1569,16 @@
         <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
         <v>28</v>
@@ -1520,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -1529,22 +1596,22 @@
         <v>15</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
         <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.636</v>
+        <v>0.625</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J7" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
         <v>6.4</v>
@@ -1606,16 +1673,16 @@
         <v>17.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O7" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P7" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.5</v>
@@ -1627,7 +1694,7 @@
         <v>42.1</v>
       </c>
       <c r="U7" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
@@ -1636,37 +1703,37 @@
         <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y7" t="n">
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1675,16 +1742,16 @@
         <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
         <v>12</v>
@@ -1708,13 +1775,13 @@
         <v>3</v>
       </c>
       <c r="AV7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1723,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC7" t="n">
         <v>12</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -1773,34 +1840,34 @@
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J8" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O8" t="n">
         <v>24.6</v>
       </c>
       <c r="P8" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.775</v>
+        <v>0.778</v>
       </c>
       <c r="R8" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
         <v>30.6</v>
@@ -1812,22 +1879,22 @@
         <v>21.1</v>
       </c>
       <c r="V8" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W8" t="n">
         <v>8.6</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="AB8" t="n">
         <v>107.3</v>
@@ -1836,7 +1903,7 @@
         <v>4.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
@@ -1848,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>12</v>
@@ -1860,10 +1927,10 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN8" t="n">
         <v>3</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>16</v>
@@ -1893,13 +1960,13 @@
         <v>13</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -1952,16 +2019,16 @@
         <v>0.352</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I9" t="n">
         <v>35.1</v>
       </c>
       <c r="J9" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -1973,28 +2040,28 @@
         <v>0.291</v>
       </c>
       <c r="O9" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.73</v>
+        <v>0.726</v>
       </c>
       <c r="R9" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S9" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T9" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V9" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2003,7 +2070,7 @@
         <v>3.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z9" t="n">
         <v>22.7</v>
@@ -2012,28 +2079,28 @@
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>92.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.1</v>
+        <v>-4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2045,19 +2112,19 @@
         <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN9" t="n">
         <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP9" t="n">
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
@@ -2066,7 +2133,7 @@
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>28</v>
@@ -2075,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -2125,13 +2192,13 @@
         <v>54</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>0.296</v>
+        <v>0.278</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
@@ -2140,7 +2207,7 @@
         <v>40.1</v>
       </c>
       <c r="J10" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.47</v>
@@ -2152,7 +2219,7 @@
         <v>18.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O10" t="n">
         <v>20.6</v>
@@ -2161,25 +2228,25 @@
         <v>26.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R10" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S10" t="n">
         <v>29.5</v>
       </c>
       <c r="T10" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="U10" t="n">
         <v>21.9</v>
       </c>
       <c r="V10" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X10" t="n">
         <v>4.4</v>
@@ -2191,16 +2258,16 @@
         <v>23.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
         <v>107.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>28</v>
@@ -2212,7 +2279,7 @@
         <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2224,22 +2291,22 @@
         <v>8</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
         <v>4</v>
       </c>
       <c r="AP10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2263,7 +2330,7 @@
         <v>24</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
         <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.509</v>
+        <v>0.519</v>
       </c>
       <c r="H11" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J11" t="n">
-        <v>84.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L11" t="n">
         <v>7.9</v>
@@ -2334,25 +2401,25 @@
         <v>22.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O11" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="P11" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.757</v>
+        <v>0.761</v>
       </c>
       <c r="R11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S11" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="T11" t="n">
-        <v>43</v>
+        <v>42.6</v>
       </c>
       <c r="U11" t="n">
         <v>21.4</v>
@@ -2361,19 +2428,19 @@
         <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
         <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z11" t="n">
         <v>20.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB11" t="n">
         <v>101.1</v>
@@ -2382,16 +2449,16 @@
         <v>0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>1</v>
@@ -2400,7 +2467,7 @@
         <v>16</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
@@ -2412,25 +2479,25 @@
         <v>3</v>
       </c>
       <c r="AN11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO11" t="n">
         <v>17</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AP11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS11" t="n">
         <v>18</v>
       </c>
-      <c r="AP11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>14</v>
-      </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -2439,10 +2506,10 @@
         <v>18</v>
       </c>
       <c r="AW11" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY11" t="n">
         <v>30</v>
@@ -2454,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2553,52 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>0.352</v>
+        <v>0.345</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.331</v>
+        <v>0.334</v>
       </c>
       <c r="O12" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P12" t="n">
         <v>23.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S12" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
         <v>42.3</v>
@@ -2540,10 +2607,10 @@
         <v>20.3</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X12" t="n">
         <v>5.7</v>
@@ -2552,34 +2619,34 @@
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>-4.5</v>
+        <v>-4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
         <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2588,19 +2655,19 @@
         <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>8</v>
@@ -2615,16 +2682,16 @@
         <v>12</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW12" t="n">
         <v>22</v>
       </c>
-      <c r="AW12" t="n">
-        <v>19</v>
-      </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>18</v>
@@ -2639,7 +2706,7 @@
         <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
         <v>22</v>
       </c>
       <c r="F13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.415</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M13" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N13" t="n">
         <v>0.32</v>
       </c>
       <c r="O13" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P13" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.728</v>
+        <v>0.724</v>
       </c>
       <c r="R13" t="n">
         <v>11.1</v>
       </c>
       <c r="S13" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T13" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="V13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>5.9</v>
@@ -2734,19 +2801,19 @@
         <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>-4.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2782,28 +2849,28 @@
         <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS13" t="n">
         <v>25</v>
       </c>
       <c r="AT13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AU13" t="n">
         <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,16 +2879,16 @@
         <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -2850,49 +2917,49 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.745</v>
+        <v>0.75</v>
       </c>
       <c r="H14" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
         <v>85</v>
       </c>
       <c r="K14" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L14" t="n">
         <v>6.6</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O14" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P14" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S14" t="n">
         <v>33.3</v>
@@ -2901,34 +2968,34 @@
         <v>44.9</v>
       </c>
       <c r="U14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.1</v>
       </c>
       <c r="W14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AC14" t="n">
         <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,25 +3019,25 @@
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>19</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS14" t="n">
         <v>3</v>
@@ -2979,16 +3046,16 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV14" t="n">
         <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -3035,61 +3102,61 @@
         <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" t="n">
-        <v>0.519</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="J15" t="n">
-        <v>84.2</v>
+        <v>83.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M15" t="n">
         <v>12.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.34</v>
+        <v>0.334</v>
       </c>
       <c r="O15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P15" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.736</v>
       </c>
       <c r="R15" t="n">
         <v>13</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T15" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X15" t="n">
         <v>5</v>
@@ -3098,40 +3165,40 @@
         <v>5.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.7</v>
+        <v>-1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,7 +3207,7 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
@@ -3149,28 +3216,28 @@
         <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AR15" t="n">
         <v>2</v>
       </c>
       <c r="AS15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
         <v>6</v>
       </c>
       <c r="AU15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV15" t="n">
         <v>21</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>28</v>
@@ -3179,13 +3246,13 @@
         <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -3214,52 +3281,52 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
         <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.509</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M16" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R16" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T16" t="n">
         <v>41.6</v>
@@ -3268,7 +3335,7 @@
         <v>19</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W16" t="n">
         <v>7.2</v>
@@ -3283,91 +3350,91 @@
         <v>21.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.2</v>
+        <v>96.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
         <v>19</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL16" t="n">
         <v>19</v>
       </c>
-      <c r="AL16" t="n">
-        <v>20</v>
-      </c>
       <c r="AM16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>18</v>
       </c>
       <c r="AR16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
         <v>17</v>
       </c>
       <c r="AU16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>15</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3486,10 +3553,10 @@
         <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>1</v>
@@ -3504,7 +3571,7 @@
         <v>6</v>
       </c>
       <c r="AN17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
         <v>30</v>
@@ -3513,7 +3580,7 @@
         <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>7</v>
@@ -3537,19 +3604,19 @@
         <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>27</v>
       </c>
       <c r="BA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC17" t="n">
         <v>17</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -3581,40 +3648,40 @@
         <v>56</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>0.214</v>
+        <v>0.232</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J18" t="n">
         <v>85</v>
       </c>
       <c r="K18" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L18" t="n">
         <v>4.6</v>
       </c>
       <c r="M18" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O18" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P18" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="Q18" t="n">
         <v>0.737</v>
@@ -3623,40 +3690,40 @@
         <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T18" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U18" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V18" t="n">
         <v>16.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z18" t="n">
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,7 +3738,7 @@
         <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>4</v>
@@ -3680,10 +3747,10 @@
         <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
         <v>25</v>
@@ -3698,13 +3765,13 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>10</v>
       </c>
       <c r="AT18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
         <v>23</v>
@@ -3713,22 +3780,22 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>30</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ18" t="n">
         <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -3775,40 +3842,40 @@
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J19" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.425</v>
       </c>
       <c r="L19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="N19" t="n">
         <v>0.299</v>
       </c>
       <c r="O19" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="P19" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.776</v>
       </c>
       <c r="R19" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S19" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="T19" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U19" t="n">
         <v>18.1</v>
@@ -3820,25 +3887,25 @@
         <v>7.4</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA19" t="n">
         <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>90</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-11.4</v>
+        <v>-11.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3874,13 +3941,13 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3895,19 +3962,19 @@
         <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>14</v>
       </c>
       <c r="BA19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -3945,103 +4012,103 @@
         <v>55</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.545</v>
+        <v>0.527</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O20" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="P20" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.788</v>
+        <v>0.783</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="U20" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
         <v>13.2</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>5</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4059,43 +4126,43 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>20</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV20" t="n">
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ20" t="n">
         <v>5</v>
       </c>
       <c r="BA20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
-        <v>0.358</v>
+        <v>0.352</v>
       </c>
       <c r="H21" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J21" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L21" t="n">
         <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O21" t="n">
         <v>16.3</v>
@@ -4175,10 +4242,10 @@
         <v>40.9</v>
       </c>
       <c r="U21" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V21" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W21" t="n">
         <v>7.2</v>
@@ -4190,40 +4257,40 @@
         <v>4.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.6</v>
+        <v>-2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
         <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4241,16 +4308,16 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>22</v>
       </c>
       <c r="AS21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU21" t="n">
         <v>10</v>
@@ -4268,7 +4335,7 @@
         <v>8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -4324,37 +4391,37 @@
         <v>36.5</v>
       </c>
       <c r="J22" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M22" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P22" t="n">
         <v>26.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.794</v>
+        <v>0.791</v>
       </c>
       <c r="R22" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S22" t="n">
         <v>32.2</v>
       </c>
       <c r="T22" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U22" t="n">
         <v>19.5</v>
@@ -4363,10 +4430,10 @@
         <v>15.4</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.9</v>
@@ -4378,34 +4445,34 @@
         <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
         <v>24</v>
@@ -4414,13 +4481,13 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4435,19 +4502,19 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -4503,31 +4570,31 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J23" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M23" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O23" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P23" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
         <v>9.699999999999999</v>
@@ -4539,16 +4606,16 @@
         <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="V23" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y23" t="n">
         <v>3.3</v>
@@ -4560,13 +4627,13 @@
         <v>22.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4575,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="AG23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
@@ -4596,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP23" t="n">
         <v>3</v>
@@ -4617,16 +4684,16 @@
         <v>4</v>
       </c>
       <c r="AU23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>25</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
         <v>1</v>
@@ -4638,10 +4705,10 @@
         <v>2</v>
       </c>
       <c r="BB23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24" t="n">
         <v>21</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.389</v>
+        <v>0.382</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
@@ -4688,37 +4755,37 @@
         <v>37.1</v>
       </c>
       <c r="J24" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O24" t="n">
         <v>17.8</v>
       </c>
       <c r="P24" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U24" t="n">
         <v>20.5</v>
@@ -4742,13 +4809,13 @@
         <v>19.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>22</v>
@@ -4769,7 +4836,7 @@
         <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4781,19 +4848,19 @@
         <v>22</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT24" t="n">
         <v>16</v>
@@ -4802,7 +4869,7 @@
         <v>17</v>
       </c>
       <c r="AV24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW24" t="n">
         <v>4</v>
@@ -4817,7 +4884,7 @@
         <v>11</v>
       </c>
       <c r="BA24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -4870,79 +4937,79 @@
         <v>40.5</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="L25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N25" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="O25" t="n">
         <v>19.4</v>
       </c>
       <c r="P25" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q25" t="n">
         <v>0.772</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S25" t="n">
         <v>31.5</v>
       </c>
       <c r="T25" t="n">
-        <v>42.7</v>
+        <v>42.4</v>
       </c>
       <c r="U25" t="n">
         <v>22.9</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W25" t="n">
         <v>5.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4960,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4969,16 +5036,16 @@
         <v>12</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -4990,16 +5057,16 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -5037,49 +5104,49 @@
         <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.544</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
         <v>35.8</v>
       </c>
       <c r="J26" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M26" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="O26" t="n">
         <v>19.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.784</v>
+        <v>0.787</v>
       </c>
       <c r="R26" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T26" t="n">
         <v>40</v>
@@ -5088,7 +5155,7 @@
         <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W26" t="n">
         <v>6.1</v>
@@ -5106,25 +5173,25 @@
         <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
         <v>11</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>26</v>
@@ -5133,16 +5200,16 @@
         <v>27</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM26" t="n">
         <v>16</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
         <v>8</v>
@@ -5151,7 +5218,7 @@
         <v>13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR26" t="n">
         <v>17</v>
@@ -5166,16 +5233,16 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>19</v>
@@ -5187,7 +5254,7 @@
         <v>24</v>
       </c>
       <c r="BC26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -5237,28 +5304,28 @@
         <v>84.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
         <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O27" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P27" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R27" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S27" t="n">
         <v>30.7</v>
@@ -5270,7 +5337,7 @@
         <v>20.4</v>
       </c>
       <c r="V27" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.9</v>
@@ -5279,25 +5346,25 @@
         <v>4.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z27" t="n">
         <v>23.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB27" t="n">
         <v>101.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
         <v>27</v>
@@ -5312,10 +5379,10 @@
         <v>8</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>14</v>
@@ -5324,34 +5391,34 @@
         <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP27" t="n">
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS27" t="n">
         <v>15</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
         <v>18</v>
       </c>
       <c r="AV27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -5401,82 +5468,82 @@
         <v>53</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.585</v>
       </c>
       <c r="H28" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.468</v>
+        <v>0.47</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M28" t="n">
         <v>18</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="R28" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S28" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U28" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V28" t="n">
         <v>13.7</v>
       </c>
       <c r="W28" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y28" t="n">
         <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
@@ -5488,64 +5555,64 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL28" t="n">
         <v>9</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AM28" t="n">
         <v>12</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>13</v>
       </c>
       <c r="AN28" t="n">
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>9</v>
       </c>
       <c r="AW28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n">
         <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.556</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J29" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L29" t="n">
         <v>6.5</v>
@@ -5610,25 +5677,25 @@
         <v>17.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O29" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P29" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q29" t="n">
         <v>0.766</v>
       </c>
       <c r="R29" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U29" t="n">
         <v>21.8</v>
@@ -5640,25 +5707,25 @@
         <v>5.6</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB29" t="n">
         <v>104.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5670,13 +5737,13 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
         <v>5</v>
@@ -5685,7 +5752,7 @@
         <v>13</v>
       </c>
       <c r="AM29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN29" t="n">
         <v>4</v>
@@ -5697,16 +5764,16 @@
         <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR29" t="n">
         <v>24</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>9</v>
@@ -5718,7 +5785,7 @@
         <v>30</v>
       </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>9</v>
@@ -5733,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -5765,55 +5832,55 @@
         <v>54</v>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.667</v>
+        <v>0.648</v>
       </c>
       <c r="H30" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J30" t="n">
         <v>78.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="L30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M30" t="n">
         <v>13.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.344</v>
+        <v>0.35</v>
       </c>
       <c r="O30" t="n">
         <v>20</v>
       </c>
       <c r="P30" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.739</v>
+        <v>0.743</v>
       </c>
       <c r="R30" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S30" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="V30" t="n">
         <v>15.3</v>
@@ -5825,34 +5892,34 @@
         <v>5.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA30" t="n">
         <v>22.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF30" t="n">
         <v>4</v>
       </c>
-      <c r="AF30" t="n">
-        <v>3</v>
-      </c>
       <c r="AG30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5864,13 +5931,13 @@
         <v>1</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5879,7 +5946,7 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>25</v>
@@ -5888,13 +5955,13 @@
         <v>11</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>5</v>
@@ -5903,19 +5970,19 @@
         <v>12</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
         <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.346</v>
+        <v>0.358</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J31" t="n">
         <v>82.7</v>
@@ -5968,10 +6035,10 @@
         <v>0.446</v>
       </c>
       <c r="L31" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M31" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N31" t="n">
         <v>0.348</v>
@@ -5983,13 +6050,13 @@
         <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R31" t="n">
         <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T31" t="n">
         <v>42.2</v>
@@ -5998,7 +6065,7 @@
         <v>18.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W31" t="n">
         <v>6.4</v>
@@ -6010,34 +6077,34 @@
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA31" t="n">
         <v>20.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC31" t="n">
-        <v>-4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG31" t="n">
         <v>23</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>26</v>
       </c>
       <c r="AH31" t="n">
         <v>12</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>14</v>
@@ -6052,49 +6119,49 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
         <v>16</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA31" t="n">
         <v>20</v>
       </c>
-      <c r="BA31" t="n">
-        <v>18</v>
-      </c>
       <c r="BB31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-21-2009-10</t>
+          <t>2010-02-21</t>
         </is>
       </c>
     </row>
